--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 13-3.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 13-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E576BAB-933F-46C8-B4F6-CDD093180F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832292CB-7FF8-4556-9595-6464FC8DC063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>Macrostabiliteit</t>
-  </si>
-  <si>
-    <t>Erosie van het buitentalud</t>
   </si>
   <si>
     <t>Duinafslag</t>
@@ -716,6 +713,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -1243,20 +1243,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
@@ -1275,6 +1261,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1401,6 +1401,20 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0"/>
           <bgColor rgb="FFFF0000"/>
@@ -1419,20 +1433,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2206,19 +2206,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>28</v>
@@ -2243,7 +2243,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>28</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
@@ -2269,21 +2269,21 @@
         <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>29</v>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>29</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -2325,16 +2325,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>29</v>
@@ -2342,16 +2342,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>29</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>29</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>29</v>
@@ -2388,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -2514,39 +2514,39 @@
         <v>49</v>
       </c>
       <c r="E6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C7</f>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C7</f>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C7</f>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C7</f>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C7</f>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="31">
         <f>BSKW!C7</f>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -3009,31 +3009,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="48" t="s">
         <v>80</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -7729,7 +7729,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="9">
         <v>19.744</v>
@@ -7831,12 +7831,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>47</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -8000,15 +8000,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -8140,10 +8140,10 @@
         <v>71</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -8884,7 +8884,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>28</v>
@@ -8892,15 +8892,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z35)</f>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -8973,7 +8973,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -9032,10 +9032,10 @@
         <v>71</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -9734,8 +9734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:V78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9759,7 +9759,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -9772,7 +9772,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -9780,15 +9780,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V76)</f>
@@ -9841,7 +9841,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N76)</f>
@@ -9896,10 +9896,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>69</v>
@@ -9912,15 +9912,15 @@
         <v>71</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -11470,7 +11470,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -11478,15 +11478,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V119)</f>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N119)</f>
@@ -11610,10 +11610,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -13078,7 +13078,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="67">
         <v>4.4320000000000004</v>
@@ -13151,7 +13151,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="67">
         <v>4.6319999999999997</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="67">
         <v>4.8319999999999999</v>
@@ -13297,7 +13297,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="67">
         <v>5.032</v>
@@ -13370,7 +13370,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="67">
         <v>5.2309999999999999</v>
@@ -13443,7 +13443,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="67">
         <v>5.431</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="67">
         <v>5.6310000000000002</v>
@@ -13589,7 +13589,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="67">
         <v>5.8330000000000002</v>
@@ -13662,7 +13662,7 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="67">
         <v>6.03</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="67">
         <v>6.2249999999999996</v>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="67">
         <v>6.4260000000000002</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="67">
         <v>6.6280000000000001</v>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="67">
         <v>6.8289999999999997</v>
@@ -14027,7 +14027,7 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="67">
         <v>7.0270000000000001</v>
@@ -14100,7 +14100,7 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" s="67">
         <v>7.2210000000000001</v>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" s="67">
         <v>7.4210000000000003</v>
@@ -14246,7 +14246,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="67">
         <v>7.6280000000000001</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="67">
         <v>7.8339999999999996</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="67">
         <v>8.032</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="67">
         <v>8.2260000000000009</v>
@@ -14538,7 +14538,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="67">
         <v>8.4260000000000002</v>
@@ -14611,7 +14611,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="67">
         <v>8.6270000000000007</v>
@@ -14684,7 +14684,7 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="67">
         <v>8.8070000000000004</v>
@@ -14757,7 +14757,7 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="67">
         <v>8.9670000000000005</v>
@@ -14830,7 +14830,7 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="67">
         <v>9.1289999999999996</v>
@@ -14903,7 +14903,7 @@
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="67">
         <v>9.2859999999999996</v>
@@ -14976,7 +14976,7 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="67">
         <v>9.4410000000000007</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="67">
         <v>9.5960000000000001</v>
@@ -15122,7 +15122,7 @@
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="67">
         <v>9.7509999999999994</v>
@@ -15195,7 +15195,7 @@
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="67">
         <v>9.9060000000000006</v>
@@ -15268,7 +15268,7 @@
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="67">
         <v>10.057</v>
@@ -15341,7 +15341,7 @@
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="67">
         <v>10.206</v>
@@ -15414,7 +15414,7 @@
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="67">
         <v>10.351000000000001</v>
@@ -15487,7 +15487,7 @@
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="67">
         <v>10.496</v>
@@ -15560,7 +15560,7 @@
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="67">
         <v>10.646000000000001</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="67">
         <v>10.795999999999999</v>
@@ -15706,7 +15706,7 @@
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="67">
         <v>10.946999999999999</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="67">
         <v>11.101000000000001</v>
@@ -15852,7 +15852,7 @@
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" s="67">
         <v>11.256</v>
@@ -15925,7 +15925,7 @@
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="67">
         <v>11.406000000000001</v>
@@ -15998,7 +15998,7 @@
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="67">
         <v>11.557</v>
@@ -16071,7 +16071,7 @@
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="67">
         <v>11.706</v>
@@ -16144,7 +16144,7 @@
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="67">
         <v>11.856</v>
@@ -16217,7 +16217,7 @@
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="67">
         <v>12.007</v>
@@ -16290,7 +16290,7 @@
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="67">
         <v>12.167</v>
@@ -16363,7 +16363,7 @@
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="67">
         <v>12.351000000000001</v>
@@ -16436,7 +16436,7 @@
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C82" s="67">
         <v>12.555</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="67">
         <v>12.763</v>
@@ -16582,7 +16582,7 @@
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="67">
         <v>12.968999999999999</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="67">
         <v>13.172000000000001</v>
@@ -16728,7 +16728,7 @@
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86" s="67">
         <v>13.377000000000001</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C87" s="67">
         <v>13.582000000000001</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C88" s="67">
         <v>13.786</v>
@@ -16947,7 +16947,7 @@
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C89" s="67">
         <v>13.989000000000001</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C90" s="67">
         <v>14.193</v>
@@ -17093,7 +17093,7 @@
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" s="67">
         <v>14.401</v>
@@ -17166,7 +17166,7 @@
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" s="67">
         <v>14.606999999999999</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C93" s="67">
         <v>14.81</v>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="67">
         <v>15.013</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="67">
         <v>15.22</v>
@@ -17458,7 +17458,7 @@
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96" s="67">
         <v>15.429</v>
@@ -17531,7 +17531,7 @@
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="67">
         <v>15.635999999999999</v>
@@ -17604,7 +17604,7 @@
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="67">
         <v>15.843</v>
@@ -17677,7 +17677,7 @@
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C99" s="67">
         <v>16.048999999999999</v>
@@ -17750,7 +17750,7 @@
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100" s="67">
         <v>16.256</v>
@@ -17823,7 +17823,7 @@
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C101" s="67">
         <v>16.451000000000001</v>
@@ -17896,7 +17896,7 @@
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="67">
         <v>16.617000000000001</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103" s="67">
         <v>16.760999999999999</v>
@@ -18042,7 +18042,7 @@
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C104" s="67">
         <v>16.901</v>
@@ -18115,7 +18115,7 @@
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="67">
         <v>17.059999999999999</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="67">
         <v>17.242000000000001</v>
@@ -18261,7 +18261,7 @@
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C107" s="67">
         <v>17.422999999999998</v>
@@ -18334,7 +18334,7 @@
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C108" s="67">
         <v>17.597000000000001</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="67">
         <v>17.777999999999999</v>
@@ -18480,7 +18480,7 @@
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" s="67">
         <v>17.946999999999999</v>
@@ -18553,7 +18553,7 @@
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C111" s="67">
         <v>18.093</v>
@@ -18626,7 +18626,7 @@
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C112" s="67">
         <v>18.238</v>
@@ -18699,7 +18699,7 @@
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C113" s="67">
         <v>18.388000000000002</v>
@@ -18772,7 +18772,7 @@
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C114" s="67">
         <v>18.538</v>
@@ -18845,7 +18845,7 @@
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B115" s="70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" s="67">
         <v>18.683</v>
@@ -18918,7 +18918,7 @@
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B116" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C116" s="67">
         <v>18.823</v>
@@ -18991,7 +18991,7 @@
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B117" s="70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C117" s="67">
         <v>18.957999999999998</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B118" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" s="67">
         <v>19.088000000000001</v>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="119" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" s="14">
         <v>19.382999999999999</v>
@@ -19402,7 +19402,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -19415,7 +19415,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -19423,15 +19423,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -19466,7 +19466,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -19484,7 +19484,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -19539,10 +19539,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>69</v>
@@ -19555,10 +19555,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -20152,7 +20152,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -20165,7 +20165,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -20173,15 +20173,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V32)</f>
@@ -20234,7 +20234,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N32)</f>
@@ -20289,10 +20289,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>69</v>
@@ -20305,10 +20305,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -20741,44 +20741,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G17:G20 G22:G32">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="48" priority="16">
       <formula>IF($E17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I32">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>IF($H17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K32">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20945,7 +20945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
@@ -20970,7 +20970,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -20983,7 +20983,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
@@ -20991,15 +20991,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
@@ -21034,7 +21034,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V33)</f>
@@ -21052,7 +21052,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -21107,10 +21107,10 @@
         <v>51</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>69</v>
@@ -21123,10 +21123,10 @@
         <v>71</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>206</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -21581,44 +21581,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G17:G33">
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="26" priority="16">
       <formula>IF($E17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I33">
-    <cfRule type="expression" dxfId="47" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>IF($H17="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K33">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
